--- a/forecast_summary_B07WL5MFXL.xlsx
+++ b/forecast_summary_B07WL5MFXL.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>6.388130115169366</v>
       </c>
       <c r="D2" t="n">
-        <v>11.17549737720649</v>
+        <v>11.17341703828166</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -511,6 +516,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>3.14976007859898</v>
       </c>
       <c r="D3" t="n">
-        <v>7.854806154916032</v>
+        <v>7.91036052890782</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -547,6 +555,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-6.03034116307112</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.451804477704471</v>
+        <v>-1.283311826859848</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -583,6 +594,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-13.67292509845815</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.844829321017693</v>
+        <v>-8.95271229179051</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -619,6 +633,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-16.06399675791931</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.33620550936317</v>
+        <v>-10.881179407821</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -655,6 +672,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-16.70917798943264</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.99323874184636</v>
+        <v>-11.70033840687137</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -691,6 +711,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-20.51622693863129</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.92442473747546</v>
+        <v>-15.70842576256193</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -727,6 +750,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-26.06418192964797</v>
       </c>
       <c r="D9" t="n">
-        <v>-21.63092175517605</v>
+        <v>-21.61917775964141</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -763,6 +789,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-26.02476294270065</v>
       </c>
       <c r="D10" t="n">
-        <v>-21.13746991445239</v>
+        <v>-21.36321252176815</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -799,6 +828,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-15.91963803834111</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.18949336816253</v>
+        <v>-11.38649020403177</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -835,6 +867,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.8027700544646268</v>
       </c>
       <c r="D12" t="n">
-        <v>3.949759507372923</v>
+        <v>3.608407966772344</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>8.678634540904158</v>
       </c>
       <c r="D13" t="n">
-        <v>13.17923976879784</v>
+        <v>13.46815004782832</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -907,6 +945,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>6.961121575076449</v>
       </c>
       <c r="D14" t="n">
-        <v>11.95846181606288</v>
+        <v>11.59452368663811</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.9884120048370646</v>
       </c>
       <c r="D15" t="n">
-        <v>3.699744917133489</v>
+        <v>3.864420555778303</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-5.419905881655107</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7681698764284912</v>
+        <v>-0.5753085445029972</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-1.905781254163429</v>
       </c>
       <c r="D17" t="n">
-        <v>2.985441545661668</v>
+        <v>3.203580447465115</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>5.3786086993145</v>
       </c>
       <c r="D18" t="n">
-        <v>9.918701432117432</v>
+        <v>10.04000191308212</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>9.697645129555728</v>
       </c>
       <c r="D19" t="n">
-        <v>14.51372823006426</v>
+        <v>14.32811952650484</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45739</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>9.016045217424212</v>
       </c>
       <c r="D20" t="n">
-        <v>13.90003761732495</v>
+        <v>13.55729935302868</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>6.385468504539361</v>
       </c>
       <c r="D21" t="n">
-        <v>10.94157540615974</v>
+        <v>10.96815500766923</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>X570 AORUS ELITE WIFI</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
